--- a/data/trans_dic/P15D$consultar-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15D$consultar-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04595516087479297</v>
+        <v>0.04672269498110827</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0378519809641046</v>
+        <v>0.0389455327361843</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05643496205780699</v>
+        <v>0.05311135702150889</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01986229895444312</v>
+        <v>0.01966074164396524</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06143263032479132</v>
+        <v>0.05946785808001624</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09659931662009916</v>
+        <v>0.09677154566133281</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06494043461486987</v>
+        <v>0.07084998525407837</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01754401699236027</v>
+        <v>0.01745195343923006</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06784319167590752</v>
+        <v>0.06274313750384676</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08825516891384633</v>
+        <v>0.08758202691115853</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4087369402411669</v>
+        <v>0.3901198445507893</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08583975732445361</v>
+        <v>0.0867207530330099</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2147948311165785</v>
+        <v>0.2270715051173455</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2238789792844151</v>
+        <v>0.2473600500216697</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3689258231271703</v>
+        <v>0.3630068286161428</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1928589014834592</v>
+        <v>0.1716348090337446</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2656104097885123</v>
+        <v>0.2736039743457752</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3068970399331056</v>
+        <v>0.2958198611951821</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2946158226613013</v>
+        <v>0.3113961019574343</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1017441901760721</v>
+        <v>0.09184262646122311</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2073971727525199</v>
+        <v>0.2043994797866127</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.223138570819064</v>
+        <v>0.2269206693419936</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04276771932262336</v>
+        <v>0.04121830261879258</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02964109538022989</v>
+        <v>0.03023102678868484</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06485403361823648</v>
+        <v>0.07675923722177205</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03609718534969168</v>
+        <v>0.03694917639361388</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03535872476245112</v>
+        <v>0.03709923219459702</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05457091044079176</v>
+        <v>0.05550587083230615</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04765648097689856</v>
+        <v>0.04805321992536966</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1036261876617639</v>
+        <v>0.09886116487629798</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05816802200982634</v>
+        <v>0.06398627530348315</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05758393552839573</v>
+        <v>0.05588509224696091</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07958062808932294</v>
+        <v>0.08457576161423325</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0755001040709609</v>
+        <v>0.07910978603403805</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2272296168029961</v>
+        <v>0.2148431562214487</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1588018594619003</v>
+        <v>0.1690061033914892</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2527605550688805</v>
+        <v>0.2568504262521468</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1842823486398021</v>
+        <v>0.1929614358167958</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3311691491026412</v>
+        <v>0.3448188878584745</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1998005582735398</v>
+        <v>0.203613651743713</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2612759764805822</v>
+        <v>0.2741363540984817</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2605288482379435</v>
+        <v>0.2558525991770906</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2247411421304399</v>
+        <v>0.222387430580215</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1584163611371073</v>
+        <v>0.1548202336599022</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2161247351860934</v>
+        <v>0.2174746650519594</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1847350746286783</v>
+        <v>0.1852922555982567</v>
       </c>
     </row>
     <row r="10">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08589845047854137</v>
+        <v>0.08758528171486493</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0404794137224775</v>
+        <v>0.03364723123302558</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
@@ -999,19 +999,19 @@
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.1383176131281844</v>
+        <v>0.1441436151983018</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06232086649867321</v>
+        <v>0.06191876133562389</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02503437985984665</v>
+        <v>0.0277350163407005</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09984211109954438</v>
+        <v>0.0953719078788626</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4681684347589989</v>
+        <v>0.4436576185032829</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2187818675871021</v>
+        <v>0.2187614352861052</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1984134686464169</v>
+        <v>0.1889562768578857</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1880798154484301</v>
+        <v>0.2242485196993754</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2190956398042608</v>
+        <v>0.2616634906081743</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08719501715007184</v>
+        <v>0.08815503183230498</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.3453994741029874</v>
+        <v>0.3437563766655539</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2839299946177471</v>
+        <v>0.2676545042095931</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1156705405048808</v>
+        <v>0.116808427920342</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09520304191239545</v>
+        <v>0.09129254636478866</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2408770549629745</v>
+        <v>0.2396873610224783</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.1707162597471937</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07298417329716032</v>
+        <v>0.07298417329716034</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2001169876493438</v>
@@ -1115,37 +1115,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05446638596732448</v>
+        <v>0.05482358171464527</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08863241543336138</v>
+        <v>0.09057864198943529</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01453128958456439</v>
+        <v>0.01721916842395331</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04979343573690757</v>
+        <v>0.05208529944967199</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05266362178540936</v>
+        <v>0.05356217135107826</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03399905891084842</v>
+        <v>0.04450754265904884</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1132721981518692</v>
+        <v>0.102273369366139</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04321725436432888</v>
+        <v>0.04736783284048056</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06627110967282912</v>
+        <v>0.07185538965641898</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0847749537921413</v>
+        <v>0.07808161414762836</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0788394754597538</v>
+        <v>0.07813336198684835</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1793568353469734</v>
+        <v>0.1721462884559901</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1938078723362243</v>
+        <v>0.1972816522427779</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.28793608198493</v>
+        <v>0.2839069857212959</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2311654977204976</v>
+        <v>0.2197735615757891</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4292751658164577</v>
+        <v>0.4269068020126696</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2145791146153156</v>
+        <v>0.2155097965816457</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1996094154727369</v>
+        <v>0.1940050380294291</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2598908759029053</v>
+        <v>0.2595017561379912</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2281167336654584</v>
+        <v>0.2232642336015886</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1746627396244017</v>
+        <v>0.1779581012670345</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.21147664612382</v>
+        <v>0.2046627896419082</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1946786573405989</v>
+        <v>0.1967401849409674</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.1152862396046655</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1348207847139925</v>
+        <v>0.1348207847139926</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08526873387440979</v>
+        <v>0.07880360437150107</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05446086970180992</v>
+        <v>0.05107066334351698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08935257637601915</v>
+        <v>0.08769774928772353</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05344117735633263</v>
+        <v>0.05161680792172803</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06715339164223137</v>
+        <v>0.06798481995835218</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05387478186468465</v>
+        <v>0.05536053730064572</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06323448786625396</v>
+        <v>0.06310310647467961</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1397618249107318</v>
+        <v>0.1399433815853128</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09049492133818282</v>
+        <v>0.09003559529541018</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06205947829665855</v>
+        <v>0.06132875013888575</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0863640675451105</v>
+        <v>0.08643674821217456</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1065293528153712</v>
+        <v>0.1088463010599489</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2034343881279127</v>
+        <v>0.2067123141464683</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.121138025179667</v>
+        <v>0.1220921038702031</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1805958467185067</v>
+        <v>0.1743722190095187</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1396878547870321</v>
+        <v>0.1366979692729175</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2112228102569922</v>
+        <v>0.2211794543443237</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1246655032603055</v>
+        <v>0.1252882270091185</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1504273535815038</v>
+        <v>0.1541711897881559</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2298497208102328</v>
+        <v>0.2274874451206909</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1880831027163374</v>
+        <v>0.186830918338989</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1120813445937581</v>
+        <v>0.1111973706930812</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1512585629214219</v>
+        <v>0.1534884609491254</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1674040507758118</v>
+        <v>0.1699762688795675</v>
       </c>
     </row>
     <row r="19">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1047</v>
+        <v>1064</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1575</v>
+        <v>1620</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2804</v>
+        <v>2639</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2990</v>
+        <v>2895</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4533</v>
+        <v>4541</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2510</v>
+        <v>2738</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1956</v>
+        <v>1946</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6125</v>
+        <v>5665</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>8527</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9312</v>
+        <v>8888</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5066</v>
+        <v>5118</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8937</v>
+        <v>9448</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11125</v>
+        <v>12292</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5854</v>
+        <v>5760</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10120</v>
+        <v>9007</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12929</v>
+        <v>13318</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14400</v>
+        <v>13880</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11387</v>
+        <v>12035</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>11344</v>
+        <v>10240</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18724</v>
+        <v>18454</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>21558</v>
+        <v>21923</v>
       </c>
     </row>
     <row r="8">
@@ -1776,40 +1776,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1830</v>
+        <v>1763</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2344</v>
+        <v>2391</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3922</v>
+        <v>4642</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2701</v>
+        <v>2764</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1066</v>
+        <v>1118</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3959</v>
+        <v>4026</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2259</v>
+        <v>2278</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6508</v>
+        <v>6209</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4241</v>
+        <v>4666</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8731</v>
+        <v>8473</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>8586</v>
+        <v>9125</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>10390</v>
+        <v>10887</v>
       </c>
     </row>
     <row r="11">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9721</v>
+        <v>9191</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12558</v>
+        <v>13365</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15286</v>
+        <v>15533</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13787</v>
+        <v>14436</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9980</v>
+        <v>10391</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14493</v>
+        <v>14770</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12388</v>
+        <v>12997</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16362</v>
+        <v>16069</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>16387</v>
+        <v>16215</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>24019</v>
+        <v>23473</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>23317</v>
+        <v>23463</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>25423</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="12">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2045</v>
+        <v>2085</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2326</v>
+        <v>1933</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
@@ -1975,19 +1975,19 @@
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>6844</v>
+        <v>7132</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2986</v>
+        <v>2967</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2867</v>
+        <v>3176</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8232</v>
+        <v>7864</v>
       </c>
     </row>
     <row r="15">
@@ -1998,38 +1998,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11145</v>
+        <v>10562</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12572</v>
+        <v>12570</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7275</v>
+        <v>6928</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6201</v>
+        <v>7394</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5283</v>
+        <v>6310</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4974</v>
+        <v>5029</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>17091</v>
+        <v>17009</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13606</v>
+        <v>12826</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>13245</v>
+        <v>13375</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>6495</v>
+        <v>6229</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>19861</v>
+        <v>19763</v>
       </c>
     </row>
     <row r="16">
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4804</v>
+        <v>4836</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5396</v>
+        <v>5515</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>923</v>
+        <v>1094</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1180</v>
+        <v>1234</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3807</v>
+        <v>3872</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2129</v>
+        <v>2787</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8266</v>
+        <v>7463</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2481</v>
+        <v>2719</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>10636</v>
+        <v>11532</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10470</v>
+        <v>9643</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>10763</v>
+        <v>10667</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6046</v>
+        <v>5803</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17095</v>
+        <v>17402</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17531</v>
+        <v>17286</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14690</v>
+        <v>13966</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10169</v>
+        <v>10113</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>15511</v>
+        <v>15578</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12499</v>
+        <v>12148</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>18965</v>
+        <v>18937</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13094</v>
+        <v>12815</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>28032</v>
+        <v>28561</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>26118</v>
+        <v>25277</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>26578</v>
+        <v>26859</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10495</v>
+        <v>9699</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15454</v>
+        <v>14492</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>17838</v>
+        <v>17507</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11812</v>
+        <v>11409</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6299</v>
+        <v>6377</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>13703</v>
+        <v>14081</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>12031</v>
+        <v>12006</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>32450</v>
+        <v>32492</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>19627</v>
+        <v>19527</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>33395</v>
+        <v>33002</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>33673</v>
+        <v>33702</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>48279</v>
+        <v>49329</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25038</v>
+        <v>25442</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>34375</v>
+        <v>34646</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>36053</v>
+        <v>34811</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>30874</v>
+        <v>30213</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19814</v>
+        <v>20748</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>31708</v>
+        <v>31866</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>28621</v>
+        <v>29334</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>53367</v>
+        <v>52818</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>40792</v>
+        <v>40520</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>60312</v>
+        <v>59837</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>58976</v>
+        <v>59845</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>75868</v>
+        <v>77034</v>
       </c>
     </row>
     <row r="24">
